--- a/永豐_海外APP_資料交換明細及介接方式說明(0602調).xlsx
+++ b/永豐_海外APP_資料交換明細及介接方式說明(0602調).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\文件\永豐【2022年人力案_eKYC】kick-off簡報 v0.1(to 紀先生)\規格書\規格書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4A1C0-FBA9-4FB0-8908-B4844461F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177AE9CC-106E-4700-8CF0-29DB61D85FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,6 +455,47 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>查詢數位開戶案件證件圖檔-中台API(分行經辦端+分行主管端)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢數位開戶案件狀態資料(一)-中台API(分行經辦端+分行主管端)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢數位開戶案件狀態資料(二)-中台API(分行經辦端+分行主管端)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程裡進入人工審核件流程後，
+提供分行系統查詢案件資料列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供分行系統查詢案件資料列表後，查詢案件詳細資料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供分行系統查詢案件資料列表後，查詢案件證件圖檔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分行主管更新進件資料狀態-中台API((分行經辦端+分行主管端)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖檔以Base64編碼存在資料表中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位名進件資料庫不一致，待確認(本API同時提供經辦+主管所需欄位)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>永豐更新進件資料簽核意見、評估說明與狀態值、經辦/主管人員代碼或名稱(主管/經辦合併為一支)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -484,49 +525,8 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>更新進件狀態</t>
+      <t>更新進件資料</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢數位開戶案件證件圖檔-中台API(分行經辦端+分行主管端)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢數位開戶案件狀態資料(一)-中台API(分行經辦端+分行主管端)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢數位開戶案件狀態資料(二)-中台API(分行經辦端+分行主管端)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程裡進入人工審核件流程後，
-提供分行系統查詢案件資料列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供分行系統查詢案件資料列表後，查詢案件詳細資料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供分行系統查詢案件資料列表後，查詢案件證件圖檔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分行主管更新進件資料狀態-中台API((分行經辦端+分行主管端)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>圖檔以Base64編碼存在資料表中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位名進件資料庫不一致，待確認(本API同時提供經辦+主管所需欄位)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待永豐確認更新內容：永豐更新進件資料之狀態值、主管人員代碼或名稱、時間(同意/拒絕)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1028,6 +1028,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,73 +1109,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2385,7 +2385,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2405,52 +2405,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="63"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
@@ -2542,10 +2542,10 @@
       <c r="K5" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
@@ -2598,10 +2598,10 @@
       <c r="K7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
@@ -2635,58 +2635,58 @@
       <c r="K8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="72">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="74" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="64" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="73"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
@@ -2780,10 +2780,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>90</v>
@@ -2803,7 +2803,7 @@
         <v>77</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2811,10 +2811,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>90</v>
@@ -2834,7 +2834,7 @@
         <v>77</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,10 +2842,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>90</v>
@@ -2865,7 +2865,7 @@
         <v>77</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,10 +2873,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>90</v>
@@ -2896,7 +2896,7 @@
         <v>77</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
@@ -2985,6 +2985,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L7:O7"/>
@@ -2997,17 +3008,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
